--- a/Propuesta reporte Calculo AF.xlsx
+++ b/Propuesta reporte Calculo AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrique/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrique/ActifRMF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74849B53-3887-5344-9A80-41AED2883C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43EEA7E-7858-CD4E-A448-94EBD7B030D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{D2300C02-24C1-470A-96A0-656254FE82FA}"/>
+    <workbookView xWindow="160" yWindow="700" windowWidth="26720" windowHeight="15600" activeTab="2" xr2:uid="{D2300C02-24C1-470A-96A0-656254FE82FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo Reporte" sheetId="3" r:id="rId1"/>
@@ -538,7 +538,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -644,6 +644,21 @@
     <xf numFmtId="37" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="37" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="37" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,33 +680,6 @@
     <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,9 +1003,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE6144B-952F-DB48-A60D-FC9D711BDB29}">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1026,14 +1014,14 @@
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="41" thickBot="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:29" ht="54" thickBot="1">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="61" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -1066,37 +1054,37 @@
       <c r="M1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="63" t="s">
+      <c r="V1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="63" t="s">
+      <c r="W1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="56" t="s">
         <v>21</v>
       </c>
       <c r="Y1" s="11" t="s">
@@ -1115,14 +1103,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="74">
+    <row r="2" spans="1:29">
+      <c r="A2" s="61">
         <v>2452</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1145,7 +1133,7 @@
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="J2" s="1">
-        <f>+G2*H2</f>
+        <f t="shared" ref="J2:J10" si="0">+G2*H2</f>
         <v>80000</v>
       </c>
       <c r="K2" s="7">
@@ -1155,79 +1143,79 @@
         <v>12</v>
       </c>
       <c r="M2" s="1">
-        <f>+G2*I2*K2</f>
+        <f t="shared" ref="M2:M8" si="1">+G2*I2*K2</f>
         <v>400000</v>
       </c>
-      <c r="N2" s="65">
-        <f>+G2-M2</f>
+      <c r="N2" s="57">
+        <f t="shared" ref="N2:N10" si="2">+G2-M2</f>
         <v>600000</v>
       </c>
-      <c r="O2" s="66">
+      <c r="O2" s="6">
         <v>103.108</v>
       </c>
-      <c r="P2" s="66">
+      <c r="P2" s="6">
         <v>134.59399999999999</v>
       </c>
-      <c r="Q2" s="66">
+      <c r="Q2" s="6">
         <f>TRUNC(P2/O2,4)</f>
         <v>1.3052999999999999</v>
       </c>
-      <c r="R2" s="67">
+      <c r="R2" s="58">
         <f>+N2*Q2</f>
         <v>783180</v>
       </c>
-      <c r="S2" s="65">
-        <f>+G2*I2*L2</f>
+      <c r="S2" s="57">
+        <f t="shared" ref="S2:S8" si="3">+G2*I2*L2</f>
         <v>80000</v>
       </c>
-      <c r="T2" s="66">
+      <c r="T2" s="6">
         <f>+O2</f>
         <v>103.108</v>
       </c>
-      <c r="U2" s="66">
+      <c r="U2" s="6">
         <f>+P2</f>
         <v>134.59399999999999</v>
       </c>
-      <c r="V2" s="66">
+      <c r="V2" s="6">
         <f>TRUNC(U2/T2,4)</f>
         <v>1.3052999999999999</v>
       </c>
-      <c r="W2" s="68">
+      <c r="W2" s="1">
         <f>+S2*V2</f>
         <v>104423.99999999999</v>
       </c>
-      <c r="X2" s="67">
+      <c r="X2" s="58">
         <f>+W2*0.5</f>
         <v>52211.999999999993</v>
       </c>
       <c r="Y2" s="1">
-        <f>+R2-X2</f>
+        <f t="shared" ref="Y2:Y10" si="4">+R2-X2</f>
         <v>730968</v>
       </c>
       <c r="Z2" s="1">
-        <f>+Y2/12*L2</f>
+        <f t="shared" ref="Z2:Z10" si="5">+Y2/12*L2</f>
         <v>730968</v>
       </c>
       <c r="AA2" s="1">
-        <f>+G2-M2-S2</f>
+        <f t="shared" ref="AA2:AA10" si="6">+G2-M2-S2</f>
         <v>520000</v>
       </c>
       <c r="AB2" s="1">
-        <f>+AA2*V2</f>
+        <f t="shared" ref="AB2:AB10" si="7">+AA2*V2</f>
         <v>678756</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="74">
+    <row r="3" spans="1:29">
+      <c r="A3" s="61">
         <v>45252</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1246,11 +1234,11 @@
         <v>0.08</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3:I10" si="0">+H3/12</f>
+        <f t="shared" ref="I3:I10" si="8">+H3/12</f>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="J3" s="1">
-        <f>+G3*H3</f>
+        <f t="shared" si="0"/>
         <v>56000</v>
       </c>
       <c r="K3" s="7">
@@ -1260,79 +1248,78 @@
         <v>10</v>
       </c>
       <c r="M3" s="1">
-        <f>+G3*I3*K3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="65">
-        <f>+G3-M3</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="57">
+        <f t="shared" si="2"/>
         <v>700000</v>
       </c>
-      <c r="O3" s="66">
+      <c r="O3" s="6">
         <v>134.065</v>
       </c>
-      <c r="P3" s="66">
+      <c r="P3" s="6">
         <v>134.59399999999999</v>
       </c>
-      <c r="Q3" s="66">
-        <f t="shared" ref="Q3:Q5" si="1">TRUNC(P3/O3,4)</f>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q5" si="9">TRUNC(P3/O3,4)</f>
         <v>1.0039</v>
       </c>
-      <c r="R3" s="67">
-        <f t="shared" ref="R3:R5" si="2">+N3*Q3</f>
+      <c r="R3" s="58">
+        <f t="shared" ref="R3:R5" si="10">+N3*Q3</f>
         <v>702730</v>
       </c>
-      <c r="S3" s="65">
-        <f>+G3*I3*L3</f>
+      <c r="S3" s="57">
+        <f t="shared" si="3"/>
         <v>46666.666666666672</v>
       </c>
-      <c r="T3" s="66">
-        <f>+O3</f>
+      <c r="T3" s="6">
+        <f t="shared" ref="T3:T10" si="11">+O3</f>
         <v>134.065</v>
       </c>
-      <c r="U3" s="66">
+      <c r="U3" s="6">
         <v>136.00299999999999</v>
       </c>
-      <c r="V3" s="66">
-        <f t="shared" ref="V3:V8" si="3">TRUNC(U3/T3,4)</f>
+      <c r="V3" s="6">
+        <f t="shared" ref="V3:V8" si="12">TRUNC(U3/T3,4)</f>
         <v>1.0144</v>
       </c>
-      <c r="W3" s="68">
-        <f t="shared" ref="W3:W5" si="4">+S3*V3</f>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3:W5" si="13">+S3*V3</f>
         <v>47338.666666666672</v>
       </c>
-      <c r="X3" s="67">
-        <f t="shared" ref="X3:X10" si="5">+W3*0.5</f>
+      <c r="X3" s="58">
+        <f t="shared" ref="X3:X10" si="14">+W3*0.5</f>
         <v>23669.333333333336</v>
       </c>
-      <c r="Y3" s="68">
-        <f>+R3-X3</f>
+      <c r="Y3" s="1">
+        <f t="shared" si="4"/>
         <v>679060.66666666663</v>
       </c>
-      <c r="Z3" s="68">
-        <f>+Y3/12*L3</f>
+      <c r="Z3" s="1">
+        <f t="shared" si="5"/>
         <v>565883.88888888888</v>
       </c>
-      <c r="AA3" s="68">
-        <f>+G3-M3-S3</f>
+      <c r="AA3" s="1">
+        <f t="shared" si="6"/>
         <v>653333.33333333337</v>
       </c>
-      <c r="AB3" s="68">
-        <f>+AA3*V3</f>
+      <c r="AB3" s="1">
+        <f t="shared" si="7"/>
         <v>662741.33333333337</v>
       </c>
-      <c r="AC3" s="69" t="s">
+      <c r="AC3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="73"/>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="74">
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="61">
         <v>48482</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1351,11 +1338,11 @@
         <v>0.08</v>
       </c>
       <c r="I4" s="9">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="J4" s="1">
-        <f>+G4*H4</f>
         <v>40000</v>
       </c>
       <c r="K4" s="7">
@@ -1365,79 +1352,78 @@
         <v>6</v>
       </c>
       <c r="M4" s="1">
-        <f>+G4*I4*K4</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="65">
-        <f>+G4-M4</f>
-        <v>500000</v>
-      </c>
-      <c r="O4" s="66">
-        <v>134.59399999999999</v>
-      </c>
-      <c r="P4" s="66">
-        <v>134.59399999999999</v>
-      </c>
-      <c r="Q4" s="66">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R4" s="67">
+        <v>0</v>
+      </c>
+      <c r="N4" s="57">
         <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-      <c r="S4" s="65">
-        <f>+G4*I4*L4</f>
+      <c r="O4" s="6">
+        <v>134.59399999999999</v>
+      </c>
+      <c r="P4" s="6">
+        <v>134.59399999999999</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="58">
+        <f t="shared" si="10"/>
+        <v>500000</v>
+      </c>
+      <c r="S4" s="57">
+        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="T4" s="66">
-        <f>+O4</f>
+      <c r="T4" s="6">
+        <f t="shared" si="11"/>
         <v>134.59399999999999</v>
       </c>
-      <c r="U4" s="66">
+      <c r="U4" s="6">
         <v>136.08000000000001</v>
       </c>
-      <c r="V4" s="66">
-        <f t="shared" si="3"/>
+      <c r="V4" s="6">
+        <f t="shared" si="12"/>
         <v>1.0109999999999999</v>
       </c>
-      <c r="W4" s="68">
+      <c r="W4" s="1">
+        <f t="shared" si="13"/>
+        <v>20219.999999999996</v>
+      </c>
+      <c r="X4" s="58">
+        <f t="shared" si="14"/>
+        <v>10109.999999999998</v>
+      </c>
+      <c r="Y4" s="1">
         <f t="shared" si="4"/>
-        <v>20219.999999999996</v>
-      </c>
-      <c r="X4" s="67">
+        <v>489890</v>
+      </c>
+      <c r="Z4" s="1">
         <f t="shared" si="5"/>
-        <v>10109.999999999998</v>
-      </c>
-      <c r="Y4" s="68">
-        <f>+R4-X4</f>
-        <v>489890</v>
-      </c>
-      <c r="Z4" s="68">
-        <f>+Y4/12*L4</f>
         <v>244945</v>
       </c>
-      <c r="AA4" s="68">
-        <f>+G4-M4-S4</f>
+      <c r="AA4" s="1">
+        <f t="shared" si="6"/>
         <v>480000</v>
       </c>
-      <c r="AB4" s="68">
-        <f>+AA4*V4</f>
+      <c r="AB4" s="1">
+        <f t="shared" si="7"/>
         <v>485279.99999999994</v>
       </c>
-      <c r="AC4" s="69" t="s">
+      <c r="AC4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="73"/>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="74">
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="61">
         <v>48483</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="61" t="s">
         <v>66</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1456,11 +1442,11 @@
         <v>0.08</v>
       </c>
       <c r="I5" s="9">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="J5" s="1">
-        <f>+G5*H5</f>
         <v>32000</v>
       </c>
       <c r="K5" s="7">
@@ -1470,497 +1456,492 @@
         <v>8</v>
       </c>
       <c r="M5" s="1">
-        <f>+G5*I5*K5</f>
+        <f t="shared" si="1"/>
         <v>173333.33333333334</v>
       </c>
-      <c r="N5" s="65">
-        <f>+G5-M5</f>
+      <c r="N5" s="57">
+        <f t="shared" si="2"/>
         <v>226666.66666666666</v>
       </c>
-      <c r="O5" s="66">
+      <c r="O5" s="6">
         <v>100.492</v>
       </c>
-      <c r="P5" s="66">
+      <c r="P5" s="6">
         <v>134.59399999999999</v>
       </c>
-      <c r="Q5" s="66">
+      <c r="Q5" s="6">
+        <f t="shared" si="9"/>
+        <v>1.3392999999999999</v>
+      </c>
+      <c r="R5" s="58">
+        <f t="shared" si="10"/>
+        <v>303574.66666666663</v>
+      </c>
+      <c r="S5" s="57">
+        <f t="shared" si="3"/>
+        <v>21333.333333333336</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="11"/>
+        <v>100.492</v>
+      </c>
+      <c r="U5" s="6">
+        <v>134.33600000000001</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" si="12"/>
+        <v>1.3367</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="13"/>
+        <v>28516.26666666667</v>
+      </c>
+      <c r="X5" s="58">
+        <f t="shared" si="14"/>
+        <v>14258.133333333335</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="4"/>
+        <v>289316.53333333327</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="5"/>
+        <v>192877.68888888884</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="6"/>
+        <v>205333.33333333331</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="7"/>
+        <v>274469.06666666665</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="61">
+        <v>48484</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4">
+        <v>29240</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45524</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H6" s="59">
+        <v>0</v>
+      </c>
+      <c r="I6" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>516</v>
+      </c>
+      <c r="L6" s="7">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>1.3392999999999999</v>
-      </c>
-      <c r="R5" s="67">
+        <v>0</v>
+      </c>
+      <c r="N6" s="57">
         <f t="shared" si="2"/>
-        <v>303574.66666666663</v>
-      </c>
-      <c r="S5" s="65">
-        <f>+G5*I5*L5</f>
-        <v>21333.333333333336</v>
-      </c>
-      <c r="T5" s="66">
-        <f>+O5</f>
-        <v>100.492</v>
-      </c>
-      <c r="U5" s="66">
+        <v>30000</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="P6" s="6">
+        <v>134.59399999999999</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" ref="Q6:Q8" si="15">TRUNC(P6/O6,4)</f>
+        <v>375.96080000000001</v>
+      </c>
+      <c r="R6" s="58">
+        <f t="shared" ref="R6:R8" si="16">+N6*Q6</f>
+        <v>11278824</v>
+      </c>
+      <c r="S6" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="11"/>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="U6" s="6">
         <v>134.33600000000001</v>
       </c>
-      <c r="V5" s="66">
+      <c r="V6" s="6">
+        <f t="shared" si="12"/>
+        <v>375.24020000000002</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" ref="W6:W8" si="17">+S6*V6</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="4"/>
+        <v>11278824</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="5"/>
+        <v>7519216</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="6"/>
+        <v>30000</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="7"/>
+        <v>11257206</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="61">
+        <v>48485</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4">
+        <v>41438</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H7" s="59">
+        <v>0</v>
+      </c>
+      <c r="I7" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>120</v>
+      </c>
+      <c r="L7" s="7">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="57">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="O7" s="6">
+        <v>80.893000000000001</v>
+      </c>
+      <c r="P7" s="6">
+        <v>134.59399999999999</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="15"/>
+        <v>1.6637999999999999</v>
+      </c>
+      <c r="R7" s="58">
+        <f t="shared" si="16"/>
+        <v>499140</v>
+      </c>
+      <c r="S7" s="57">
         <f t="shared" si="3"/>
-        <v>1.3367</v>
-      </c>
-      <c r="W5" s="68">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="11"/>
+        <v>80.893000000000001</v>
+      </c>
+      <c r="U7" s="6">
+        <v>134.59399999999999</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="12"/>
+        <v>1.6637999999999999</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
         <f t="shared" si="4"/>
-        <v>28516.26666666667</v>
-      </c>
-      <c r="X5" s="67">
+        <v>499140</v>
+      </c>
+      <c r="Z7" s="1">
         <f t="shared" si="5"/>
-        <v>14258.133333333335</v>
-      </c>
-      <c r="Y5" s="68">
-        <f>+R5-X5</f>
-        <v>289316.53333333327</v>
-      </c>
-      <c r="Z5" s="68">
-        <f>+Y5/12*L5</f>
-        <v>192877.68888888884</v>
-      </c>
-      <c r="AA5" s="68">
-        <f>+G5-M5-S5</f>
-        <v>205333.33333333331</v>
-      </c>
-      <c r="AB5" s="68">
-        <f>+AA5*V5</f>
-        <v>274469.06666666665</v>
-      </c>
-      <c r="AC5" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD5" s="73"/>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="74">
-        <v>48484</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="70">
-        <v>29240</v>
-      </c>
-      <c r="F6" s="70">
-        <v>45524</v>
-      </c>
-      <c r="G6" s="68">
-        <v>30000</v>
-      </c>
-      <c r="H6" s="71">
-        <v>0</v>
-      </c>
-      <c r="I6" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="68">
-        <f>+G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="69">
-        <v>516</v>
-      </c>
-      <c r="L6" s="69">
-        <v>8</v>
-      </c>
-      <c r="M6" s="68">
-        <f>+G6*I6*K6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="65">
-        <f>+G6-M6</f>
-        <v>30000</v>
-      </c>
-      <c r="O6" s="66">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="P6" s="66">
-        <v>134.59399999999999</v>
-      </c>
-      <c r="Q6" s="66">
-        <f t="shared" ref="Q6:Q8" si="6">TRUNC(P6/O6,4)</f>
-        <v>375.96080000000001</v>
-      </c>
-      <c r="R6" s="67">
-        <f t="shared" ref="R6:R8" si="7">+N6*Q6</f>
-        <v>11278824</v>
-      </c>
-      <c r="S6" s="65">
-        <f>+G6*I6*L6</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="66">
-        <f>+O6</f>
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="U6" s="66">
-        <v>134.33600000000001</v>
-      </c>
-      <c r="V6" s="66">
-        <f t="shared" si="3"/>
-        <v>375.24020000000002</v>
-      </c>
-      <c r="W6" s="68">
-        <f t="shared" ref="W6:W8" si="8">+S6*V6</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="67">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="68">
-        <f>+R6-X6</f>
-        <v>11278824</v>
-      </c>
-      <c r="Z6" s="68">
-        <f>+Y6/12*L6</f>
-        <v>7519216</v>
-      </c>
-      <c r="AA6" s="68">
-        <f>+G6-M6-S6</f>
-        <v>30000</v>
-      </c>
-      <c r="AB6" s="68">
-        <f>+AA6*V6</f>
-        <v>11257206</v>
-      </c>
-      <c r="AC6" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD6" s="73"/>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="74">
-        <v>48485</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="70">
-        <v>41438</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="68">
+        <v>499140</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
-      <c r="H7" s="71">
-        <v>0</v>
-      </c>
-      <c r="I7" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="68">
-        <f>+G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="69">
-        <v>120</v>
-      </c>
-      <c r="L7" s="69">
-        <v>12</v>
-      </c>
-      <c r="M7" s="68">
-        <f>+G7*I7*K7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="65">
-        <f>+G7-M7</f>
-        <v>300000</v>
-      </c>
-      <c r="O7" s="66">
-        <v>80.893000000000001</v>
-      </c>
-      <c r="P7" s="66">
-        <v>134.59399999999999</v>
-      </c>
-      <c r="Q7" s="66">
-        <f t="shared" si="6"/>
-        <v>1.6637999999999999</v>
-      </c>
-      <c r="R7" s="67">
+      <c r="AB7" s="1">
         <f t="shared" si="7"/>
         <v>499140</v>
       </c>
-      <c r="S7" s="65">
-        <f>+G7*I7*L7</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="66">
-        <f>+O7</f>
-        <v>80.893000000000001</v>
-      </c>
-      <c r="U7" s="66">
+      <c r="AC7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="61">
+        <v>48486</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45402</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>650000</v>
+      </c>
+      <c r="H8" s="59">
+        <v>0</v>
+      </c>
+      <c r="I8" s="60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>9</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="57">
+        <f t="shared" si="2"/>
+        <v>650000</v>
+      </c>
+      <c r="O8" s="6">
+        <v>134.33600000000001</v>
+      </c>
+      <c r="P8" s="6">
         <v>134.59399999999999</v>
       </c>
-      <c r="V7" s="66">
+      <c r="Q8" s="6">
+        <f t="shared" si="15"/>
+        <v>1.0019</v>
+      </c>
+      <c r="R8" s="58">
+        <f t="shared" si="16"/>
+        <v>651235</v>
+      </c>
+      <c r="S8" s="57">
         <f t="shared" si="3"/>
-        <v>1.6637999999999999</v>
-      </c>
-      <c r="W7" s="68">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="11"/>
+        <v>134.33600000000001</v>
+      </c>
+      <c r="U8" s="6">
+        <v>136.00299999999999</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="12"/>
+        <v>1.0124</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="4"/>
+        <v>651235</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="5"/>
+        <v>488426.25</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="6"/>
+        <v>650000</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="7"/>
+        <v>658060</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="61">
+        <v>48488</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4">
+        <v>29240</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45524</v>
+      </c>
+      <c r="G9" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H9" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="60">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="67">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="K9" s="7">
+        <v>516</v>
+      </c>
+      <c r="L9" s="7">
+        <v>8</v>
+      </c>
+      <c r="M9" s="1">
+        <v>120000</v>
+      </c>
+      <c r="N9" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="P9" s="6">
+        <v>134.59399999999999</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" ref="Q9:Q10" si="18">TRUNC(P9/O9,4)</f>
+        <v>375.96080000000001</v>
+      </c>
+      <c r="R9" s="58">
+        <f t="shared" ref="R9:R10" si="19">+N9*Q9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="57">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="11"/>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="U9" s="6">
+        <v>134.33600000000001</v>
+      </c>
+      <c r="V9" s="6">
+        <f t="shared" ref="V9:V10" si="20">TRUNC(U9/T9,4)</f>
+        <v>375.24020000000002</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" ref="W9:W10" si="21">+S9*V9</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="68">
-        <f>+R7-X7</f>
-        <v>499140</v>
-      </c>
-      <c r="Z7" s="68">
-        <f>+Y7/12*L7</f>
-        <v>499140</v>
-      </c>
-      <c r="AA7" s="68">
-        <f>+G7-M7-S7</f>
-        <v>300000</v>
-      </c>
-      <c r="AB7" s="68">
-        <f>+AA7*V7</f>
-        <v>499140</v>
-      </c>
-      <c r="AC7" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD7" s="73"/>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="74">
-        <v>48486</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="70">
-        <v>45402</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="68">
-        <v>650000</v>
-      </c>
-      <c r="H8" s="71">
-        <v>0</v>
-      </c>
-      <c r="I8" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="68">
-        <f>+G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="69">
-        <v>0</v>
-      </c>
-      <c r="L8" s="69">
-        <v>9</v>
-      </c>
-      <c r="M8" s="68">
-        <f>+G8*I8*K8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="65">
-        <f>+G8-M8</f>
-        <v>650000</v>
-      </c>
-      <c r="O8" s="66">
-        <v>134.33600000000001</v>
-      </c>
-      <c r="P8" s="66">
-        <v>134.59399999999999</v>
-      </c>
-      <c r="Q8" s="66">
+      <c r="AA9" s="1">
         <f t="shared" si="6"/>
-        <v>1.0019</v>
-      </c>
-      <c r="R8" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
         <f t="shared" si="7"/>
-        <v>651235</v>
-      </c>
-      <c r="S8" s="65">
-        <f>+G8*I8*L8</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="66">
-        <f>+O8</f>
-        <v>134.33600000000001</v>
-      </c>
-      <c r="U8" s="66">
-        <v>136.00299999999999</v>
-      </c>
-      <c r="V8" s="66">
-        <f t="shared" si="3"/>
-        <v>1.0124</v>
-      </c>
-      <c r="W8" s="68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="67">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="68">
-        <f>+R8-X8</f>
-        <v>651235</v>
-      </c>
-      <c r="Z8" s="68">
-        <f>+Y8/12*L8</f>
-        <v>488426.25</v>
-      </c>
-      <c r="AA8" s="68">
-        <f>+G8-M8-S8</f>
-        <v>650000</v>
-      </c>
-      <c r="AB8" s="68">
-        <f>+AA8*V8</f>
-        <v>658060</v>
-      </c>
-      <c r="AC8" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD8" s="73"/>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="74">
-        <v>48488</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="70">
-        <v>29240</v>
-      </c>
-      <c r="F9" s="70">
-        <v>45524</v>
-      </c>
-      <c r="G9" s="68">
-        <v>120000</v>
-      </c>
-      <c r="H9" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="I9" s="72">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="J9" s="68">
-        <f>+G9*H9</f>
-        <v>6000</v>
-      </c>
-      <c r="K9" s="69">
-        <v>516</v>
-      </c>
-      <c r="L9" s="69">
-        <v>8</v>
-      </c>
-      <c r="M9" s="68">
-        <v>120000</v>
-      </c>
-      <c r="N9" s="65">
-        <f>+G9-M9</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="66">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="P9" s="66">
-        <v>134.59399999999999</v>
-      </c>
-      <c r="Q9" s="66">
-        <f t="shared" ref="Q9:Q10" si="9">TRUNC(P9/O9,4)</f>
-        <v>375.96080000000001</v>
-      </c>
-      <c r="R9" s="67">
-        <f t="shared" ref="R9:R10" si="10">+N9*Q9</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="65">
-        <v>0</v>
-      </c>
-      <c r="T9" s="66">
-        <f>+O9</f>
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="U9" s="66">
-        <v>134.33600000000001</v>
-      </c>
-      <c r="V9" s="66">
-        <f t="shared" ref="V9:V10" si="11">TRUNC(U9/T9,4)</f>
-        <v>375.24020000000002</v>
-      </c>
-      <c r="W9" s="68">
-        <f t="shared" ref="W9:W10" si="12">+S9*V9</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="67">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="68">
-        <f>+R9-X9</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="68">
-        <f>+Y9/12*L9</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="68">
-        <f>+G9-M9-S9</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="68">
-        <f>+AA9*V9</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AD9" s="73"/>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="74">
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="61">
         <v>48489</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1979,11 +1960,11 @@
         <v>0.05</v>
       </c>
       <c r="I10" s="9">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="J10" s="1">
-        <f>+G10*H10</f>
         <v>60000</v>
       </c>
       <c r="K10" s="7">
@@ -1996,78 +1977,78 @@
         <f>+G10*I10*K10</f>
         <v>575000</v>
       </c>
-      <c r="N10" s="65">
-        <f>+G10-M10</f>
+      <c r="N10" s="57">
+        <f t="shared" si="2"/>
         <v>625000</v>
       </c>
-      <c r="O10" s="66">
+      <c r="O10" s="6">
         <v>80.893000000000001</v>
       </c>
-      <c r="P10" s="66">
+      <c r="P10" s="6">
         <v>134.59399999999999</v>
       </c>
-      <c r="Q10" s="66">
-        <f t="shared" si="9"/>
+      <c r="Q10" s="6">
+        <f t="shared" si="18"/>
         <v>1.6637999999999999</v>
       </c>
-      <c r="R10" s="67">
-        <f t="shared" si="10"/>
+      <c r="R10" s="58">
+        <f t="shared" si="19"/>
         <v>1039875</v>
       </c>
-      <c r="S10" s="65">
+      <c r="S10" s="57">
         <f>+G10*I10*L10</f>
         <v>60000</v>
       </c>
-      <c r="T10" s="66">
-        <f>+O10</f>
+      <c r="T10" s="6">
+        <f t="shared" si="11"/>
         <v>80.893000000000001</v>
       </c>
-      <c r="U10" s="66">
+      <c r="U10" s="6">
         <v>134.59399999999999</v>
       </c>
-      <c r="V10" s="66">
-        <f t="shared" si="11"/>
+      <c r="V10" s="6">
+        <f t="shared" si="20"/>
         <v>1.6637999999999999</v>
       </c>
-      <c r="W10" s="68">
-        <f t="shared" si="12"/>
+      <c r="W10" s="1">
+        <f t="shared" si="21"/>
         <v>99828</v>
       </c>
-      <c r="X10" s="67">
+      <c r="X10" s="58">
+        <f t="shared" si="14"/>
+        <v>49914</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="4"/>
+        <v>989961</v>
+      </c>
+      <c r="Z10" s="1">
         <f t="shared" si="5"/>
-        <v>49914</v>
-      </c>
-      <c r="Y10" s="1">
-        <f>+R10-X10</f>
         <v>989961</v>
       </c>
-      <c r="Z10" s="1">
-        <f>+Y10/12*L10</f>
-        <v>989961</v>
-      </c>
       <c r="AA10" s="1">
-        <f>+G10-M10-S10</f>
+        <f t="shared" si="6"/>
         <v>565000</v>
       </c>
       <c r="AB10" s="1">
-        <f>+AA10*V10</f>
+        <f t="shared" si="7"/>
         <v>940047</v>
       </c>
       <c r="AC10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2087,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AD79A-4B07-4F62-96E5-0587AA1D4906}">
   <dimension ref="A3:V132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
@@ -3107,9 +3088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF790D18-008F-4895-9B42-FC447C0081FD}">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:AC16"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
@@ -3158,27 +3139,27 @@
       <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="64"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="60"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="67"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="61" t="s">
+      <c r="X4" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="61"/>
+      <c r="Y4" s="68"/>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" ht="53" thickBot="1">
       <c r="A5" s="11" t="s">

--- a/Propuesta reporte Calculo AF.xlsx
+++ b/Propuesta reporte Calculo AF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrique/ActifRMF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43EEA7E-7858-CD4E-A448-94EBD7B030D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2BC80B-B8B2-3A48-B7B1-D956DE016A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="700" windowWidth="26720" windowHeight="15600" activeTab="2" xr2:uid="{D2300C02-24C1-470A-96A0-656254FE82FA}"/>
+    <workbookView xWindow="320" yWindow="4240" windowWidth="26720" windowHeight="10920" activeTab="2" xr2:uid="{D2300C02-24C1-470A-96A0-656254FE82FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo Reporte" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
   <si>
     <t>MOI</t>
   </si>
@@ -293,18 +293,27 @@
   </si>
   <si>
     <t>El reporte se generaría por compañía y se permitiría exportar a excel.</t>
+  </si>
+  <si>
+    <t>1/1/2022</t>
+  </si>
+  <si>
+    <t>23/2/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000_);\(#,##0.0000\)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0000%"/>
     <numFmt numFmtId="168" formatCode="#,##0.00000_);\(#,##0.00000\)"/>
+    <numFmt numFmtId="170" formatCode="0.00000%"/>
+    <numFmt numFmtId="179" formatCode="0.00000000000000%"/>
+    <numFmt numFmtId="182" formatCode="\$#,##0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -357,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +412,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +559,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -680,6 +701,53 @@
     <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="2" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="2" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2068,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AD79A-4B07-4F62-96E5-0587AA1D4906}">
   <dimension ref="A3:V132"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+    <sheetView topLeftCell="C5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
@@ -2077,7 +2145,7 @@
     <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
     <col min="2" max="4" width="8.83203125" style="1"/>
     <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="8.83203125" style="1"/>
     <col min="12" max="13" width="9.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
@@ -2308,145 +2376,146 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:22" s="75" customFormat="1">
+      <c r="A8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
-        <v>45493</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>550000</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="B8" s="72">
+        <v>40878</v>
+      </c>
+      <c r="C8" s="72">
+        <v>45315</v>
+      </c>
+      <c r="D8" s="75">
+        <v>25420</v>
+      </c>
+      <c r="E8" s="74">
         <v>0.08</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="79">
+        <v>6.6670000000000002E-3</v>
+      </c>
+      <c r="G8" s="75">
+        <f>+D8*E8</f>
+        <v>2033.6000000000001</v>
+      </c>
+      <c r="H8" s="71">
+        <v>145</v>
+      </c>
+      <c r="I8" s="71">
+        <v>0</v>
+      </c>
+      <c r="J8" s="71">
+        <v>1</v>
+      </c>
+      <c r="K8" s="73">
+        <f>+D8*F8*H8</f>
+        <v>24573.8953</v>
+      </c>
+      <c r="L8" s="73">
+        <f>+D8-K8</f>
+        <v>846.10469999999987</v>
+      </c>
+      <c r="M8" s="73">
+        <f>+D8*F8*I8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="73">
+        <f>+L8-M8</f>
+        <v>846.10469999999987</v>
+      </c>
+      <c r="O8" s="73">
+        <f>+N8/12*J8</f>
+        <v>70.508724999999984</v>
+      </c>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73">
+        <f>IF(O8&gt;(D8*0.1),O8,(D8*0.1))</f>
+        <v>2542</v>
+      </c>
+      <c r="R8" s="76">
+        <v>18.247800000000002</v>
+      </c>
+      <c r="S8" s="77">
+        <f t="shared" si="1"/>
+        <v>46385.907600000006</v>
+      </c>
+      <c r="U8" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" s="75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="75" customFormat="1">
+      <c r="A9" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="72">
+        <v>44916</v>
+      </c>
+      <c r="C9" s="72">
+        <v>45499</v>
+      </c>
+      <c r="D9" s="73">
+        <v>6611.77</v>
+      </c>
+      <c r="E9" s="74">
+        <v>0.08</v>
+      </c>
+      <c r="F9" s="78">
         <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G8" s="1">
-        <f>+D8*E8</f>
-        <v>44000</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="G9" s="75">
+        <f>+D9*E9</f>
+        <v>528.94159999999999</v>
+      </c>
+      <c r="H9" s="71">
+        <v>13</v>
+      </c>
+      <c r="I9" s="71">
         <v>3</v>
       </c>
-      <c r="J8" s="7">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1">
-        <f>+D8*F8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>+D8-K8</f>
-        <v>550000</v>
-      </c>
-      <c r="M8" s="1">
-        <f>+D8*F8*I8</f>
-        <v>11000</v>
-      </c>
-      <c r="N8" s="1">
-        <f>+L8-M8</f>
-        <v>539000</v>
-      </c>
-      <c r="O8" s="1">
-        <f>+N8/12*J8</f>
-        <v>269500</v>
-      </c>
-      <c r="Q8" s="1">
-        <f>IF(O8&gt;(D8*0.1),O8,(D8*0.1))</f>
-        <v>269500</v>
-      </c>
-      <c r="R8" s="26">
+      <c r="J9" s="71">
+        <v>7</v>
+      </c>
+      <c r="K9" s="73">
+        <f>+D9*F9*H9</f>
+        <v>573.02006666666671</v>
+      </c>
+      <c r="L9" s="73">
+        <f>+D9-K9</f>
+        <v>6038.7499333333335</v>
+      </c>
+      <c r="M9" s="73">
+        <f>+D9*F9*I9</f>
+        <v>132.23540000000003</v>
+      </c>
+      <c r="N9" s="73">
+        <f>+L9-M9</f>
+        <v>5906.514533333333</v>
+      </c>
+      <c r="O9" s="73">
+        <f>+N9/12*J9</f>
+        <v>3445.4668111111109</v>
+      </c>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73">
+        <f>IF(O9&gt;(D9*0.1),O9,(D9*0.1))</f>
+        <v>3445.4668111111109</v>
+      </c>
+      <c r="R9" s="76">
         <v>18.247800000000002</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S9" s="77">
         <f t="shared" si="1"/>
-        <v>4917782.1000000006</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4">
-        <v>43332</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45524</v>
-      </c>
-      <c r="D9" s="1">
-        <v>200000</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="G9" s="1">
-        <f>+D9*E9</f>
-        <v>16000</v>
-      </c>
-      <c r="H9" s="7">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4</v>
-      </c>
-      <c r="J9" s="7">
-        <v>8</v>
-      </c>
-      <c r="K9" s="1">
-        <f>+D9*F9*H9</f>
-        <v>86666.666666666672</v>
-      </c>
-      <c r="L9" s="1">
-        <f>+D9-K9</f>
-        <v>113333.33333333333</v>
-      </c>
-      <c r="M9" s="1">
-        <f>+D9*F9*I9</f>
-        <v>5333.3333333333339</v>
-      </c>
-      <c r="N9" s="1">
-        <f>+L9-M9</f>
-        <v>108000</v>
-      </c>
-      <c r="O9" s="1">
-        <f>+N9/12*J9</f>
-        <v>72000</v>
-      </c>
-      <c r="Q9" s="1">
-        <f>IF(O9&gt;(D9*0.1),O9,(D9*0.1))</f>
-        <v>72000</v>
-      </c>
-      <c r="R9" s="26">
-        <v>18.247800000000002</v>
-      </c>
-      <c r="S9" s="22">
-        <f t="shared" si="1"/>
-        <v>1313841.6000000001</v>
-      </c>
-      <c r="U9" s="25" t="s">
+        <v>62872.189275793338</v>
+      </c>
+      <c r="U9" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="75" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2455,13 +2524,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>40928</v>
+        <v>44922</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1">
-        <v>800000</v>
+      <c r="D10" s="69">
+        <v>12991.49</v>
       </c>
       <c r="E10" s="5">
         <v>0.08</v>
@@ -2470,12 +2539,12 @@
         <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="69">
         <f>+D10*E10</f>
-        <v>64000</v>
+        <v>1039.3191999999999</v>
       </c>
       <c r="H10" s="7">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
         <v>6</v>
@@ -2483,36 +2552,36 @@
       <c r="J10" s="7">
         <v>12</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="69">
         <f>+D10*F10*H10</f>
-        <v>704000.00000000012</v>
-      </c>
-      <c r="L10" s="1">
+        <v>1125.9291333333333</v>
+      </c>
+      <c r="L10" s="69">
         <f>+D10-K10</f>
-        <v>95999.999999999884</v>
-      </c>
-      <c r="M10" s="1">
+        <v>11865.560866666667</v>
+      </c>
+      <c r="M10" s="69">
         <f>+D10*F10*I10</f>
-        <v>32000.000000000004</v>
-      </c>
-      <c r="N10" s="1">
+        <v>519.65959999999995</v>
+      </c>
+      <c r="N10" s="69">
         <f>+L10-M10</f>
-        <v>63999.999999999884</v>
-      </c>
-      <c r="O10" s="1">
+        <v>11345.901266666668</v>
+      </c>
+      <c r="O10" s="69">
         <f>+N10/12*J10</f>
-        <v>63999.999999999884</v>
+        <v>11345.901266666668</v>
       </c>
       <c r="Q10" s="1">
         <f>IF(O10&gt;(D10*0.1),O10,(D10*0.1))</f>
-        <v>80000</v>
+        <v>11345.901266666668</v>
       </c>
       <c r="R10" s="26">
         <v>18.247800000000002</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="70">
         <f t="shared" si="1"/>
-        <v>1459824.0000000002</v>
+        <v>207037.73713388003</v>
       </c>
       <c r="U10" s="27" t="s">
         <v>53</v>
@@ -2540,46 +2609,46 @@
       <c r="C12" s="15"/>
       <c r="D12" s="16">
         <f>SUM(D6:D11)</f>
-        <v>1710000</v>
+        <v>205023.25999999998</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="16">
         <f>SUM(G6:G11)</f>
-        <v>136800</v>
+        <v>16401.860800000002</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
-        <v>830666.66666666674</v>
+        <v>66272.844500000007</v>
       </c>
       <c r="L12" s="16">
         <f>SUM(L6:L11)</f>
-        <v>879333.33333333326</v>
+        <v>138750.4155</v>
       </c>
       <c r="M12" s="16">
         <f>SUM(M6:M11)</f>
-        <v>54333.333333333343</v>
+        <v>6651.8949999999995</v>
       </c>
       <c r="N12" s="16">
         <f>SUM(N6:N11)</f>
-        <v>824999.99999999988</v>
+        <v>132098.52049999998</v>
       </c>
       <c r="O12" s="16">
         <f>SUM(O6:O11)</f>
-        <v>509833.3333333332</v>
+        <v>119195.2101361111</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16">
         <f>SUM(Q6:Q11)</f>
-        <v>525833.33333333326</v>
+        <v>121666.70141111109</v>
       </c>
       <c r="R12" s="16"/>
       <c r="S12" s="19">
         <f>SUM(S6:S11)</f>
-        <v>9595301.5</v>
+        <v>2220149.6340096733</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>59</v>
@@ -3088,9 +3157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF790D18-008F-4895-9B42-FC447C0081FD}">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
@@ -3252,13 +3321,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>43485</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>44916</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45499</v>
       </c>
       <c r="D6" s="1">
-        <v>1000000</v>
+        <v>6611.77</v>
       </c>
       <c r="E6" s="5">
         <v>0.08</v>
@@ -3267,23 +3336,23 @@
         <f>+E6/12</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="69">
         <f>+D6*E6</f>
-        <v>80000</v>
-      </c>
-      <c r="H6" s="7">
-        <v>60</v>
-      </c>
-      <c r="I6" s="7">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1">
+        <v>528.94159999999999</v>
+      </c>
+      <c r="H6" s="80">
+        <v>13</v>
+      </c>
+      <c r="I6" s="80">
+        <v>3</v>
+      </c>
+      <c r="J6" s="69">
         <f>+D6*F6*H6</f>
-        <v>400000</v>
-      </c>
-      <c r="K6" s="31">
+        <v>573.02006666666671</v>
+      </c>
+      <c r="K6" s="81">
         <f>+D6-J6</f>
-        <v>600000</v>
+        <v>6038.7499333333335</v>
       </c>
       <c r="L6" s="32">
         <v>103.108</v>
@@ -3297,11 +3366,11 @@
       </c>
       <c r="O6" s="33">
         <f>+K6*N6</f>
-        <v>783180</v>
+        <v>7882.3802879799996</v>
       </c>
       <c r="Q6" s="40">
         <f>+D6*F6*I6</f>
-        <v>80000</v>
+        <v>132.23540000000003</v>
       </c>
       <c r="R6" s="41">
         <f>+L6</f>
@@ -3317,27 +3386,27 @@
       </c>
       <c r="U6" s="25">
         <f>+Q6*T6</f>
-        <v>104423.99999999999</v>
+        <v>172.60686762000003</v>
       </c>
       <c r="V6" s="42">
         <f>+U6*0.5</f>
-        <v>52211.999999999993</v>
+        <v>86.303433810000016</v>
       </c>
       <c r="X6" s="1">
         <f>+O6-V6</f>
-        <v>730968</v>
+        <v>7796.0768541699999</v>
       </c>
       <c r="Y6" s="1">
         <f>+X6/12*I6</f>
-        <v>730968</v>
+        <v>1949.0192135425</v>
       </c>
       <c r="AA6" s="1">
         <f>+D6-J6-Q6</f>
-        <v>520000</v>
+        <v>5906.514533333333</v>
       </c>
       <c r="AB6" s="1">
         <f>+AA6*T6</f>
-        <v>678756</v>
+        <v>7709.7734203599994</v>
       </c>
       <c r="AC6" s="7" t="s">
         <v>30</v>
@@ -3444,101 +3513,101 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:31" s="87" customFormat="1" ht="15">
+      <c r="A8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
-        <v>45493</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>500000</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="B8" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="84">
+        <v>3694.15</v>
+      </c>
+      <c r="E8" s="85">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="86">
         <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="G8" s="1">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="G8" s="87">
         <f>+D8*E8</f>
-        <v>40000</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="31">
+        <v>1108.2449999999999</v>
+      </c>
+      <c r="H8" s="82">
+        <v>23</v>
+      </c>
+      <c r="I8" s="82">
+        <v>2</v>
+      </c>
+      <c r="J8" s="87">
+        <f>+D8*F8*H8</f>
+        <v>2124.1362499999996</v>
+      </c>
+      <c r="K8" s="91">
         <f>+D8-J8</f>
-        <v>500000</v>
-      </c>
-      <c r="L8" s="32">
+        <v>1570.0137500000005</v>
+      </c>
+      <c r="L8">
+        <v>118.002</v>
+      </c>
+      <c r="M8" s="89">
         <v>134.59399999999999</v>
       </c>
-      <c r="M8" s="32">
-        <v>134.59399999999999</v>
-      </c>
-      <c r="N8" s="32">
+      <c r="N8" s="89">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="33">
+        <v>1.1406000000000001</v>
+      </c>
+      <c r="O8" s="90">
         <f t="shared" si="3"/>
-        <v>500000</v>
-      </c>
-      <c r="Q8" s="40">
+        <v>1790.7576832500006</v>
+      </c>
+      <c r="Q8" s="88">
         <f t="shared" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="R8" s="41">
+        <v>184.70749999999998</v>
+      </c>
+      <c r="R8" s="89">
         <f>+L8</f>
-        <v>134.59399999999999</v>
-      </c>
-      <c r="S8" s="41">
+        <v>118.002</v>
+      </c>
+      <c r="S8" s="89">
         <v>136.08000000000001</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="89">
         <f t="shared" si="5"/>
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="U8" s="25">
+        <v>1.1532</v>
+      </c>
+      <c r="U8" s="87">
         <f t="shared" si="6"/>
-        <v>20219.999999999996</v>
-      </c>
-      <c r="V8" s="42">
+        <v>213.00468899999998</v>
+      </c>
+      <c r="V8" s="90">
         <f t="shared" si="7"/>
-        <v>10109.999999999998</v>
-      </c>
-      <c r="X8" s="1">
+        <v>106.50234449999999</v>
+      </c>
+      <c r="X8" s="87">
         <f>+O8-V8</f>
-        <v>489890</v>
-      </c>
-      <c r="Y8" s="46">
+        <v>1684.2553387500006</v>
+      </c>
+      <c r="Y8" s="87">
         <f t="shared" si="9"/>
-        <v>244945</v>
-      </c>
-      <c r="AA8" s="1">
+        <v>280.70922312500011</v>
+      </c>
+      <c r="AA8" s="87">
         <f t="shared" si="10"/>
-        <v>480000</v>
-      </c>
-      <c r="AB8" s="1">
+        <v>1385.3062500000005</v>
+      </c>
+      <c r="AB8" s="87">
         <f t="shared" si="11"/>
-        <v>485279.99999999994</v>
-      </c>
-      <c r="AC8" s="7" t="s">
+        <v>1597.5351675000006</v>
+      </c>
+      <c r="AC8" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AE8" s="87" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4208,64 +4277,64 @@
       <c r="C18" s="15"/>
       <c r="D18" s="16">
         <f>SUM(D6:D17)</f>
-        <v>4900000</v>
+        <v>3410305.92</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="16">
         <f>SUM(G6:G17)</f>
-        <v>274000</v>
+        <v>155637.18660000002</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="16">
         <f>SUM(J6:J17)</f>
-        <v>1268333.3333333335</v>
+        <v>871030.48965</v>
       </c>
       <c r="K18" s="34">
         <f>SUM(K6:K17)</f>
-        <v>3631666.666666667</v>
+        <v>2539275.43035</v>
       </c>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
       <c r="O18" s="36">
         <f>SUM(O6:O17)</f>
-        <v>15758558.666666666</v>
+        <v>14485051.804637896</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="43">
         <f>SUM(Q6:Q17)</f>
-        <v>228000.00000000003</v>
+        <v>128316.94289999999</v>
       </c>
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
       <c r="U18" s="44">
         <f t="shared" ref="U18:V18" si="29">SUM(U6:U17)</f>
-        <v>300326.93333333335</v>
+        <v>176068.54488995334</v>
       </c>
       <c r="V18" s="45">
         <f t="shared" si="29"/>
-        <v>150163.46666666667</v>
+        <v>88034.272444976668</v>
       </c>
       <c r="W18" s="16"/>
       <c r="X18" s="16">
         <f t="shared" ref="X18:Y18" si="30">SUM(X6:X17)</f>
-        <v>15608395.199999999</v>
+        <v>14397017.532192919</v>
       </c>
       <c r="Y18" s="19">
         <f t="shared" si="30"/>
-        <v>11231417.827777777</v>
+        <v>10257734.556214444</v>
       </c>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16">
         <f t="shared" ref="AA18:AB18" si="31">SUM(AA6:AA17)</f>
-        <v>3403666.666666667</v>
+        <v>2410958.4874499999</v>
       </c>
       <c r="AB18" s="16">
         <f t="shared" si="31"/>
-        <v>15455699.4</v>
+        <v>14300970.708587861</v>
       </c>
       <c r="AC18" s="13"/>
     </row>
